--- a/User_Questions_and_Responses.xlsx
+++ b/User_Questions_and_Responses.xlsx
@@ -453,12 +453,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-07-31 16:30:16</t>
+          <t>2025-07-31 18:52:03</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>i need some help to select courses this quarter</t>
+          <t>hey!!!!</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -470,32 +470,29 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-07-31 16:31:26</t>
+          <t>2025-07-31 18:52:18</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>What courses do I need to take before taking uwp 104F</t>
+          <t>hey</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>The prerequisites for UWP 104F are:
-UWP 001 or UWP 001V or UWP 001Y or ENL 003 or ENL 003V or COM 001 or COM 002 or COM 003 or COM 004 or NAS 005 
-and upper division standing..
-Is there anything else I can help you with?</t>
+          <t>Hey! Need help with a course?</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-07-31 16:32:24</t>
+          <t>2025-07-31 18:52:42</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>what courses do I need before taking ECS 040</t>
+          <t>tell me about mat 067</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -507,48 +504,48 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-07-31 16:33:02</t>
+          <t>2025-07-31 18:53:31</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>what courses do i need before taking ecs 050</t>
+          <t>what is the course description of mat 067?</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>The prerequisites for ECS 050 are:
-ECS 040  or ECS 036B or ECS 032C .
-Is there anything else I can help you with?</t>
+          <t>I'm not sure yet, but I'll try to learn! Is there anything else I can help you with?</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-07-31 16:33:35</t>
+          <t>2025-07-31 18:54:57</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>hey</t>
+          <t>What are the prerequisites for mat 067?</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Hey! Need help with a course?</t>
+          <t>The prerequisites for MAT 067 are:
+MAT 021C or MAT 021CH .
+Is there anything else I can help you with?</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-07-31 16:33:41</t>
+          <t>2025-07-31 18:55:10</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -560,17 +557,18 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-07-31 16:35:37</t>
+          <t>2025-07-31 18:56:34</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>what courses do I need before taking EEC250</t>
+          <t>How many units are in mat 067</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>I'm not sure yet, but I'll try to learn! Is there anything else I can help you with?</t>
+          <t>MAT 067 is a Rigorous treatment of linear algebra; topics include vector spaces, bases and dimensions, orthogonal projections, eigenvalues and eigenvectors, similarity transformations, singular value decomposition and positive definiteness.-unit course.
+Is there anything else I can help you with?</t>
         </is>
       </c>
     </row>
